--- a/size_spread/style_spread.xlsx
+++ b/size_spread/style_spread.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M263"/>
+  <dimension ref="A1:M266"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9397,6 +9397,108 @@
       </c>
       <c r="M263" t="n">
         <v>1.233002</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>02/25</t>
+        </is>
+      </c>
+      <c r="B264" t="n">
+        <v>0.0009</v>
+      </c>
+      <c r="D264" t="n">
+        <v>0.0009</v>
+      </c>
+      <c r="E264" t="n">
+        <v>0.651676</v>
+      </c>
+      <c r="F264" t="n">
+        <v>0.2694</v>
+      </c>
+      <c r="H264" t="n">
+        <v>0.2694</v>
+      </c>
+      <c r="I264" t="n">
+        <v>1.100144</v>
+      </c>
+      <c r="J264" t="n">
+        <v>0.4423</v>
+      </c>
+      <c r="L264" t="n">
+        <v>0.4423</v>
+      </c>
+      <c r="M264" t="n">
+        <v>1.238456</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>02/26</t>
+        </is>
+      </c>
+      <c r="B265" t="n">
+        <v>-1.1417</v>
+      </c>
+      <c r="D265" t="n">
+        <v>-1.1417</v>
+      </c>
+      <c r="E265" t="n">
+        <v>0.644236</v>
+      </c>
+      <c r="F265" t="n">
+        <v>0.6693</v>
+      </c>
+      <c r="H265" t="n">
+        <v>0.6693</v>
+      </c>
+      <c r="I265" t="n">
+        <v>1.107507</v>
+      </c>
+      <c r="J265" t="n">
+        <v>0.9811</v>
+      </c>
+      <c r="L265" t="n">
+        <v>0.9811</v>
+      </c>
+      <c r="M265" t="n">
+        <v>1.250606</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>02/27</t>
+        </is>
+      </c>
+      <c r="B266" t="n">
+        <v>0.8565</v>
+      </c>
+      <c r="D266" t="n">
+        <v>0.8565</v>
+      </c>
+      <c r="E266" t="n">
+        <v>0.6497540000000001</v>
+      </c>
+      <c r="F266" t="n">
+        <v>0.4728</v>
+      </c>
+      <c r="H266" t="n">
+        <v>0.4728</v>
+      </c>
+      <c r="I266" t="n">
+        <v>1.112743</v>
+      </c>
+      <c r="J266" t="n">
+        <v>1.1467</v>
+      </c>
+      <c r="L266" t="n">
+        <v>1.1467</v>
+      </c>
+      <c r="M266" t="n">
+        <v>1.264947</v>
       </c>
     </row>
   </sheetData>
@@ -9410,7 +9512,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E263"/>
+  <dimension ref="A1:E266"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14421,6 +14523,63 @@
       </c>
       <c r="E263" t="n">
         <v>1.56497</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>02/25</t>
+        </is>
+      </c>
+      <c r="B264" t="n">
+        <v>1.4072</v>
+      </c>
+      <c r="C264" t="n">
+        <v>0.5405</v>
+      </c>
+      <c r="D264" t="n">
+        <v>0.9738</v>
+      </c>
+      <c r="E264" t="n">
+        <v>1.58021</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>02/26</t>
+        </is>
+      </c>
+      <c r="B265" t="n">
+        <v>-0.2932</v>
+      </c>
+      <c r="C265" t="n">
+        <v>0.8539</v>
+      </c>
+      <c r="D265" t="n">
+        <v>0.2803</v>
+      </c>
+      <c r="E265" t="n">
+        <v>1.584641</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>02/27</t>
+        </is>
+      </c>
+      <c r="B266" t="n">
+        <v>-1.0367</v>
+      </c>
+      <c r="C266" t="n">
+        <v>0.1453</v>
+      </c>
+      <c r="D266" t="n">
+        <v>-0.4457</v>
+      </c>
+      <c r="E266" t="n">
+        <v>1.577578</v>
       </c>
     </row>
   </sheetData>
@@ -14434,7 +14593,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E263"/>
+  <dimension ref="A1:E266"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19445,6 +19604,63 @@
       </c>
       <c r="E263" t="n">
         <v>1.409295</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>02/25</t>
+        </is>
+      </c>
+      <c r="B264" t="n">
+        <v>2.7933</v>
+      </c>
+      <c r="C264" t="n">
+        <v>0.8149999999999999</v>
+      </c>
+      <c r="D264" t="n">
+        <v>1.9783</v>
+      </c>
+      <c r="E264" t="n">
+        <v>1.437176</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>02/26</t>
+        </is>
+      </c>
+      <c r="B265" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="C265" t="n">
+        <v>-1.035</v>
+      </c>
+      <c r="D265" t="n">
+        <v>1.125</v>
+      </c>
+      <c r="E265" t="n">
+        <v>1.453344</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>02/27</t>
+        </is>
+      </c>
+      <c r="B266" t="n">
+        <v>3.2233</v>
+      </c>
+      <c r="C266" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D266" t="n">
+        <v>3.1733</v>
+      </c>
+      <c r="E266" t="n">
+        <v>1.499464</v>
       </c>
     </row>
   </sheetData>
@@ -19458,7 +19674,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G243"/>
+  <dimension ref="A1:G246"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26521,6 +26737,93 @@
         </is>
       </c>
     </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>02/25</t>
+        </is>
+      </c>
+      <c r="B244" t="n">
+        <v>1.315</v>
+      </c>
+      <c r="C244" t="n">
+        <v>1.255</v>
+      </c>
+      <c r="D244" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="E244" t="n">
+        <v>1.03504</v>
+      </c>
+      <c r="F244" t="inlineStr">
+        <is>
+          <t>综合, 美容护理, 社会服务, 煤炭, 纺织服饰, 钢铁</t>
+        </is>
+      </c>
+      <c r="G244" t="inlineStr">
+        <is>
+          <t>电子, 电力设备, 有色金属, 机械设备, 计算机, 通信</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>02/26</t>
+        </is>
+      </c>
+      <c r="B245" t="n">
+        <v>-0.345</v>
+      </c>
+      <c r="C245" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="D245" t="n">
+        <v>-1.265</v>
+      </c>
+      <c r="E245" t="n">
+        <v>1.021947</v>
+      </c>
+      <c r="F245" t="inlineStr">
+        <is>
+          <t>综合, 美容护理, 社会服务, 纺织服饰, 煤炭, 钢铁</t>
+        </is>
+      </c>
+      <c r="G245" t="inlineStr">
+        <is>
+          <t>电子, 电力设备, 有色金属, 机械设备, 计算机, 通信</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>02/27</t>
+        </is>
+      </c>
+      <c r="B246" t="n">
+        <v>1.3733</v>
+      </c>
+      <c r="C246" t="n">
+        <v>0.515</v>
+      </c>
+      <c r="D246" t="n">
+        <v>0.8583</v>
+      </c>
+      <c r="E246" t="n">
+        <v>1.030718</v>
+      </c>
+      <c r="F246" t="inlineStr">
+        <is>
+          <t>综合, 美容护理, 社会服务, 纺织服饰, 煤炭, 环保</t>
+        </is>
+      </c>
+      <c r="G246" t="inlineStr">
+        <is>
+          <t>电子, 电力设备, 有色金属, 机械设备, 计算机, 通信</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
